--- a/material/translation/TermDefinitions/LocationAddress.xlsx
+++ b/material/translation/TermDefinitions/LocationAddress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu.sharepoint.com/sites/--/Shared Documents/DE4A/WP3/XSDs/Ana Rosa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu.sharepoint.com/sites/--/Shared Documents/DE4A/WP3/XSDs/Ana Rosa/Birth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{D28A008F-02B0-429B-9395-B0C42F260C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{620EBEA9-7757-44BF-B150-4AD554EA8955}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{D28A008F-02B0-429B-9395-B0C42F260C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F94AC474-C11E-4B51-A3C6-0F2A0C174949}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fr" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="en" sheetId="2" r:id="rId5"/>
     <sheet name="Terms" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="57">
   <si>
     <t>Term</t>
   </si>
@@ -53,152 +53,185 @@
     <t>Verified</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Admin unit level 2</t>
+  </si>
+  <si>
+    <t>The region of the address, usually a county, state or other such area that typically encompasses several localities.</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Admin unit level 1</t>
+  </si>
+  <si>
+    <t>The uppermost administrative unit for the address, almost always a country. Best practice is to use the ISO 3166-1 code.</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>PoBox</t>
+  </si>
+  <si>
+    <t>The Post Office Box number. INSPIRE's name for this is "postalDeliveryIdentifier" for which it uses the locator designator property with a type attribute of that name. This vocabulary separates out the Post Office Box for greater independence of technology.</t>
+  </si>
+  <si>
+    <t>Thoroughface</t>
+  </si>
+  <si>
+    <t>Quoting from the INSPIRE guidelines, a thoroughfare is: "an address component that represents the name of a passage or way through from one location to another. A thoroughfare is not necessarily a road, it might be a waterway or some other feature.</t>
+  </si>
+  <si>
+    <t>2nd South Street</t>
+  </si>
+  <si>
+    <t>Locator designator</t>
+  </si>
+  <si>
+    <t>The locator designator is defined by the INSPIRE guidelines as "a number or a sequence of characters that uniquely identifies the locator within the relevant scope(s). The full identification of the locator could include one or more locator designators." In simpler terms, this is the building number, apartment number, etc. For an address such as "Flat 3, 17 Bridge Street", the locator is "flat 3, 17."</t>
+  </si>
+  <si>
+    <t>"18", "Flat 3", "Floor 6"</t>
+  </si>
+  <si>
+    <t>Locator name</t>
+  </si>
+  <si>
+    <t>Based on the INSPIRE guidelines, locator name is defined as: "Proper noun(s) applied to the real world entity identified by the locator. The locator name could be the name of the property or complex, of the building or part of the building, or it could be the name of a room inside a building. The key difference between a locator and a locator name is that the latter is a proper name and is unlikely to include digits. For example, "Shumann, Berlaymont" is a meeting room within the European Commission headquarters for which locator name is more appropriate than locator.</t>
+  </si>
+  <si>
+    <t>Town Hall</t>
+  </si>
+  <si>
+    <t>Address area</t>
+  </si>
+  <si>
+    <t>Taking the definition from INSPIRE, the address area is: the name or names of a geographic area or locality that groups a number of addressable objects for addressing purposes, without being an administrative unit." This would typically be part of a city, a neighbourhood or village.</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Post name</t>
+  </si>
+  <si>
+    <t>The key postal division of the address, usually the city. (INSPIRE's definition is "One or more names created and maintained for postal purposes to identify a subdivision of addresses and postal delivery points.)</t>
+  </si>
+  <si>
+    <t>Post code</t>
+  </si>
+  <si>
+    <t>The post code (a.k.a postal code, zip code etc.). Post codes are common elements in many countries' postal address systems.</t>
+  </si>
+  <si>
+    <t>2804-268</t>
+  </si>
+  <si>
     <t>Term URI</t>
   </si>
   <si>
     <t>Origin</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Optional</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Type</t>
+    <t>LocationAddress</t>
+  </si>
+  <si>
+    <t>LocationAddress/AdminUnitL2</t>
+  </si>
+  <si>
+    <t>cvb:AdminunitSecondlineType</t>
   </si>
   <si>
     <t>UDT/Text</t>
   </si>
   <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>LocationAddress/AdminUnitL1</t>
+  </si>
+  <si>
     <t>CountryEnum</t>
   </si>
   <si>
-    <t>cvb:AdminunitSecondlineType</t>
+    <t>LocationAddress/PoBox</t>
   </si>
   <si>
     <t>cvb:PoBoxType</t>
   </si>
   <si>
+    <t>LocationAddress/Thoroughfare</t>
+  </si>
+  <si>
     <t>cvb:ThoroughfareType</t>
   </si>
   <si>
+    <t>LocationAddress/LocatorDesignator</t>
+  </si>
+  <si>
     <t>cvb:LocatorDesignatorType</t>
   </si>
   <si>
+    <t>LocationAddress/LocatorName</t>
+  </si>
+  <si>
     <t>cvb:LocatorNameType</t>
   </si>
   <si>
+    <t>LocationAddress/AddressArea</t>
+  </si>
+  <si>
     <t>cvb:CvaddressAreaType</t>
   </si>
   <si>
+    <t>LocationAddress/PostName</t>
+  </si>
+  <si>
     <t>cvb:PostNameType</t>
   </si>
   <si>
+    <t>LocationAddress/PostCode</t>
+  </si>
+  <si>
     <t>cvb:PostCodeType</t>
-  </si>
-  <si>
-    <t>LocationAddress</t>
-  </si>
-  <si>
-    <t>LocationAddress/AdminUnitL2</t>
-  </si>
-  <si>
-    <t>LocationAddress/AdminUnitL1</t>
-  </si>
-  <si>
-    <t>LocationAddress/PoBox</t>
-  </si>
-  <si>
-    <t>LocationAddress/Thoroughfare</t>
-  </si>
-  <si>
-    <t>LocationAddress/LocatorDesignator</t>
-  </si>
-  <si>
-    <t>LocationAddress/LocatorName</t>
-  </si>
-  <si>
-    <t>LocationAddress/AddressArea</t>
-  </si>
-  <si>
-    <t>LocationAddress/PostName</t>
-  </si>
-  <si>
-    <t>LocationAddress/PostCode</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Admin unit level 2</t>
-  </si>
-  <si>
-    <t>The region of the address, usually a county, state or other such area that typically encompasses several localities.</t>
-  </si>
-  <si>
-    <t>Admin unit level 1</t>
-  </si>
-  <si>
-    <t>The uppermost administrative unit for the address, almost always a country. Best practice is to use the ISO 3166-1 code.</t>
-  </si>
-  <si>
-    <t>PoBox</t>
-  </si>
-  <si>
-    <t>The Post Office Box number. INSPIRE's name for this is "postalDeliveryIdentifier" for which it uses the locator designator property with a type attribute of that name. This vocabulary separates out the Post Office Box for greater independence of technology.</t>
-  </si>
-  <si>
-    <t>Thoroughface</t>
-  </si>
-  <si>
-    <t>Quoting from the INSPIRE guidelines, a thoroughfare is: "an address component that represents the name of a passage or way through from one location to another. A thoroughfare is not necessarily a road, it might be a waterway or some other feature.</t>
-  </si>
-  <si>
-    <t>Locator designator</t>
-  </si>
-  <si>
-    <t>The locator designator is defined by the INSPIRE guidelines as "a number or a sequence of characters that uniquely identifies the locator within the relevant scope(s). The full identification of the locator could include one or more locator designators." In simpler terms, this is the building number, apartment number, etc. For an address such as "Flat 3, 17 Bridge Street", the locator is "flat 3, 17."</t>
-  </si>
-  <si>
-    <t>Locator name</t>
-  </si>
-  <si>
-    <t>Based on the INSPIRE guidelines, locator name is defined as: "Proper noun(s) applied to the real world entity identified by the locator. The locator name could be the name of the property or complex, of the building or part of the building, or it could be the name of a room inside a building. The key difference between a locator and a locator name is that the latter is a proper name and is unlikely to include digits. For example, "Shumann, Berlaymont" is a meeting room within the European Commission headquarters for which locator name is more appropriate than locator.</t>
-  </si>
-  <si>
-    <t>Address area</t>
-  </si>
-  <si>
-    <t>Taking the definition from INSPIRE, the address area is: the name or names of a geographic area or locality that groups a number of addressable objects for addressing purposes, without being an administrative unit." This would typically be part of a city, a neighbourhood or village.</t>
-  </si>
-  <si>
-    <t>Post name</t>
-  </si>
-  <si>
-    <t>The key postal division of the address, usually the city. (INSPIRE's definition is "One or more names created and maintained for postal purposes to identify a subdivision of addresses and postal delivery points.)</t>
-  </si>
-  <si>
-    <t>Post code</t>
-  </si>
-  <si>
-    <t>The post code (a.k.a postal code, zip code etc.). Post codes are common elements in many countries' postal address systems.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,13 +254,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +635,7 @@
         <v>LocationAddress</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -609,7 +644,7 @@
         <v>LocationAddress/AdminUnitL2</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -618,7 +653,7 @@
         <v>LocationAddress/AdminUnitL1</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -627,7 +662,7 @@
         <v>LocationAddress/PoBox</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -636,7 +671,7 @@
         <v>LocationAddress/Thoroughfare</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -645,7 +680,7 @@
         <v>LocationAddress/LocatorDesignator</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -654,7 +689,7 @@
         <v>LocationAddress/LocatorName</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -663,7 +698,7 @@
         <v>LocationAddress/AddressArea</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -673,7 +708,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -682,7 +717,7 @@
         <v>LocationAddress/PostCode</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -732,7 +767,7 @@
         <v>LocationAddress</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -741,7 +776,7 @@
         <v>LocationAddress/AdminUnitL2</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -750,7 +785,7 @@
         <v>LocationAddress/AdminUnitL1</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -759,7 +794,7 @@
         <v>LocationAddress/PoBox</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -768,7 +803,7 @@
         <v>LocationAddress/Thoroughfare</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -777,7 +812,7 @@
         <v>LocationAddress/LocatorDesignator</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -786,7 +821,7 @@
         <v>LocationAddress/LocatorName</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -795,7 +830,7 @@
         <v>LocationAddress/AddressArea</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -805,7 +840,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -814,7 +849,7 @@
         <v>LocationAddress/PostCode</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -862,7 +897,7 @@
         <v>LocationAddress</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -871,7 +906,7 @@
         <v>LocationAddress/AdminUnitL2</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -880,7 +915,7 @@
         <v>LocationAddress/AdminUnitL1</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -889,7 +924,7 @@
         <v>LocationAddress/PoBox</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -898,7 +933,7 @@
         <v>LocationAddress/Thoroughfare</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -907,7 +942,7 @@
         <v>LocationAddress/LocatorDesignator</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -916,7 +951,7 @@
         <v>LocationAddress/LocatorName</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -925,7 +960,7 @@
         <v>LocationAddress/AddressArea</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -935,7 +970,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -944,7 +979,7 @@
         <v>LocationAddress/PostCode</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -995,7 +1030,7 @@
         <v>LocationAddress</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1004,7 +1039,7 @@
         <v>LocationAddress/AdminUnitL2</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1013,7 +1048,7 @@
         <v>LocationAddress/AdminUnitL1</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1022,7 +1057,7 @@
         <v>LocationAddress/PoBox</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1031,7 +1066,7 @@
         <v>LocationAddress/Thoroughfare</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1040,7 +1075,7 @@
         <v>LocationAddress/LocatorDesignator</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1049,7 +1084,7 @@
         <v>LocationAddress/LocatorName</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1058,7 +1093,7 @@
         <v>LocationAddress/AddressArea</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1068,7 +1103,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1077,7 +1112,7 @@
         <v>LocationAddress/PostCode</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1093,16 +1128,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="3"/>
+    <col min="3" max="3" width="70.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1128,7 +1165,10 @@
         <v>LocationAddress</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1137,10 +1177,16 @@
         <v>LocationAddress/AdminUnitL2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1149,10 +1195,16 @@
         <v>LocationAddress/AdminUnitL1</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1161,10 +1213,16 @@
         <v>LocationAddress/PoBox</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1173,22 +1231,34 @@
         <v>LocationAddress/Thoroughfare</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>Terms!A7</f>
         <v>LocationAddress/LocatorDesignator</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1197,10 +1267,16 @@
         <v>LocationAddress/LocatorName</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1209,10 +1285,16 @@
         <v>LocationAddress/AddressArea</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1221,10 +1303,16 @@
         <v>LocationAddress/PostName</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1233,16 +1321,16 @@
         <v>LocationAddress/PostCode</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f>Terms!A12</f>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1267,144 +1355,144 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1418,21 +1506,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Έγγραφο" ma:contentTypeID="0x0101007E289342E878A3439E8711FFF848F32F" ma:contentTypeVersion="11" ma:contentTypeDescription="Δημιουργία νέου εγγράφου" ma:contentTypeScope="" ma:versionID="46ceb6b1ca17f648485ffad8d87a7461">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="387b4333-7bd0-482a-b673-9a586eb2ceee" xmlns:ns3="4aa09831-7f3d-42ba-9b8c-49994d1626d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a21b98261e948a646c8dae0c6b0aefd5" ns2:_="" ns3:_="">
     <xsd:import namespace="387b4333-7bd0-482a-b673-9a586eb2ceee"/>
@@ -1643,15 +1722,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D21B558-1CC2-49FC-A1E6-EF48DA3E2AEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F4DB1E3-ED74-4131-A145-E5AAC4244613}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1660,21 +1740,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8137D34-336B-44EF-A96E-E46493065B60}"/>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FD51D8-5A43-457B-8F0A-FAD11D35BC87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D21B558-1CC2-49FC-A1E6-EF48DA3E2AEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="387b4333-7bd0-482a-b673-9a586eb2ceee"/>
-    <ds:schemaRef ds:uri="4aa09831-7f3d-42ba-9b8c-49994d1626d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>